--- a/results_final/sigma_LL.xlsx
+++ b/results_final/sigma_LL.xlsx
@@ -519,91 +519,91 @@
         <v>0.3905760977195454</v>
       </c>
       <c r="D2">
-        <v>0.3130954371623449</v>
+        <v>0.3131086366238275</v>
       </c>
       <c r="E2">
-        <v>0.256507819397479</v>
+        <v>0.2565399486615723</v>
       </c>
       <c r="F2">
-        <v>0.2143055133037227</v>
+        <v>0.214358684812574</v>
       </c>
       <c r="G2">
-        <v>0.1822323168388346</v>
+        <v>0.1823069533001543</v>
       </c>
       <c r="H2">
-        <v>0.1574389416557862</v>
+        <v>0.1575347439359886</v>
       </c>
       <c r="I2">
-        <v>0.1379766138349419</v>
+        <v>0.1380930423254937</v>
       </c>
       <c r="J2">
-        <v>0.1224858742724077</v>
+        <v>0.1226223814968134</v>
       </c>
       <c r="K2">
-        <v>0.1100009166995325</v>
+        <v>0.110157052438336</v>
       </c>
       <c r="L2">
-        <v>0.09982393340196394</v>
+        <v>0.09999938495249651</v>
       </c>
       <c r="M2">
-        <v>0.091442815478419</v>
+        <v>0.09163741562213061</v>
       </c>
       <c r="N2">
-        <v>0.08447625250232244</v>
+        <v>0.08468997215183446</v>
       </c>
       <c r="O2">
-        <v>0.07863647926877032</v>
+        <v>0.07886941358252049</v>
       </c>
       <c r="P2">
-        <v>0.07370359134335923</v>
+        <v>0.07395594377594422</v>
       </c>
       <c r="Q2">
-        <v>0.06950757125805528</v>
+        <v>0.06977963773233987</v>
       </c>
       <c r="R2">
-        <v>0.06591553415646804</v>
+        <v>0.06620768834539273</v>
       </c>
       <c r="S2">
-        <v>0.06282255829100759</v>
+        <v>0.06313523837831314</v>
       </c>
       <c r="T2">
-        <v>0.06014501152204039</v>
+        <v>0.06047870850224038</v>
       </c>
       <c r="U2">
-        <v>0.05781563813273402</v>
+        <v>0.05817088556643298</v>
       </c>
       <c r="V2">
-        <v>0.05577990219547427</v>
+        <v>0.05615726727805073</v>
       </c>
       <c r="W2">
-        <v>0.05399323815599947</v>
+        <v>0.05439331394330277</v>
       </c>
       <c r="X2">
-        <v>0.05241896348850279</v>
+        <v>0.0528423621297343</v>
       </c>
       <c r="Y2">
-        <v>0.0510266794419787</v>
+        <v>0.05147402628525084</v>
       </c>
       <c r="Z2">
-        <v>0.04979103508396694</v>
+        <v>0.05026296353792752</v>
       </c>
       <c r="AA2">
-        <v>0.04869076422200008</v>
+        <v>0.0491879112743307</v>
       </c>
       <c r="AB2">
-        <v>0.04770792906059522</v>
+        <v>0.04823093136980588</v>
       </c>
       <c r="AC2">
-        <v>0.04682732177073421</v>
+        <v>0.04737681226104241</v>
       </c>
       <c r="AD2">
-        <v>0.04603598762193423</v>
+        <v>0.0466125925221445</v>
       </c>
       <c r="AE2">
-        <v>0.04532284239170459</v>
+        <v>0.04592717866810596</v>
       </c>
       <c r="AF2">
-        <v>0.04467836341170097</v>
+        <v>0.04531103655236424</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -614,94 +614,94 @@
         <v>0.3342371379733693</v>
       </c>
       <c r="C3">
-        <v>0.2600884103700621</v>
+        <v>0.2600884103700622</v>
       </c>
       <c r="D3">
-        <v>0.2070996857467089</v>
+        <v>0.2071516416860954</v>
       </c>
       <c r="E3">
-        <v>0.1683600008718237</v>
+        <v>0.1684855184934867</v>
       </c>
       <c r="F3">
-        <v>0.1394464211356261</v>
+        <v>0.1396524132940549</v>
       </c>
       <c r="G3">
-        <v>0.1174578016323833</v>
+        <v>0.1177443373390633</v>
       </c>
       <c r="H3">
-        <v>0.1004476303482088</v>
+        <v>0.1008118710514512</v>
       </c>
       <c r="I3">
-        <v>0.08708239105999431</v>
+        <v>0.08752054044696063</v>
       </c>
       <c r="J3">
-        <v>0.07643077910939977</v>
+        <v>0.0769390169094455</v>
       </c>
       <c r="K3">
-        <v>0.06783072732778572</v>
+        <v>0.06840562345067501</v>
       </c>
       <c r="L3">
-        <v>0.06080376837242868</v>
+        <v>0.06144243401125601</v>
       </c>
       <c r="M3">
-        <v>0.05499881273001121</v>
+        <v>0.05569892192506423</v>
       </c>
       <c r="N3">
-        <v>0.05015457179322067</v>
+        <v>0.0509143228859198</v>
       </c>
       <c r="O3">
-        <v>0.04607401972099322</v>
+        <v>0.04689207248441217</v>
       </c>
       <c r="P3">
-        <v>0.04260676415035292</v>
+        <v>0.04348217062958563</v>
       </c>
       <c r="Q3">
-        <v>0.03963669745634695</v>
+        <v>0.04056883518890718</v>
       </c>
       <c r="R3">
-        <v>0.03707322766478095</v>
+        <v>0.03806173905311023</v>
       </c>
       <c r="S3">
-        <v>0.03484497084379194</v>
+        <v>0.03588970993934296</v>
       </c>
       <c r="T3">
-        <v>0.03289515892825397</v>
+        <v>0.03399614564727368</v>
       </c>
       <c r="U3">
-        <v>0.03117825823183488</v>
+        <v>0.03233563945802031</v>
       </c>
       <c r="V3">
-        <v>0.02965745264097001</v>
+        <v>0.03087146945612431</v>
       </c>
       <c r="W3">
-        <v>0.02830275134278914</v>
+        <v>0.02957371158895838</v>
       </c>
       <c r="X3">
-        <v>0.02708955244626185</v>
+        <v>0.02841780786814257</v>
       </c>
       <c r="Y3">
-        <v>0.02599754275111101</v>
+        <v>0.02738347004656231</v>
       </c>
       <c r="Z3">
-        <v>0.02500984774072475</v>
+        <v>0.02645383293486765</v>
       </c>
       <c r="AA3">
-        <v>0.02411236952768904</v>
+        <v>0.02561479517022956</v>
       </c>
       <c r="AB3">
-        <v>0.02329326719395205</v>
+        <v>0.02485450195486719</v>
       </c>
       <c r="AC3">
-        <v>0.02254254589480734</v>
+        <v>0.02416293619882322</v>
       </c>
       <c r="AD3">
-        <v>0.02185172968766385</v>
+        <v>0.02353159308323939</v>
       </c>
       <c r="AE3">
-        <v>0.02121359929116105</v>
+        <v>0.02295321929595645</v>
       </c>
       <c r="AF3">
-        <v>0.02062198055755181</v>
+        <v>0.02242160276086346</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -715,91 +715,91 @@
         <v>0.3152491828189724</v>
       </c>
       <c r="D4">
-        <v>0.2910812964480133</v>
+        <v>0.2911434353259267</v>
       </c>
       <c r="E4">
-        <v>0.2704447815643221</v>
+        <v>0.2706163438120515</v>
       </c>
       <c r="F4">
-        <v>0.2526872492872796</v>
+        <v>0.2530048491592982</v>
       </c>
       <c r="G4">
-        <v>0.2372964292361073</v>
+        <v>0.2377889342501062</v>
       </c>
       <c r="H4">
-        <v>0.2238662548980033</v>
+        <v>0.2245568470785072</v>
       </c>
       <c r="I4">
-        <v>0.2120719948200931</v>
+        <v>0.2129796357648804</v>
       </c>
       <c r="J4">
-        <v>0.2016518158982912</v>
+        <v>0.2027922955511925</v>
       </c>
       <c r="K4">
-        <v>0.1923929730689052</v>
+        <v>0.1937796652023631</v>
       </c>
       <c r="L4">
-        <v>0.1841213629055973</v>
+        <v>0.1857657723227541</v>
       </c>
       <c r="M4">
-        <v>0.1766935483600783</v>
+        <v>0.1786057091542984</v>
       </c>
       <c r="N4">
-        <v>0.169990616535632</v>
+        <v>0.1721793832089434</v>
       </c>
       <c r="O4">
-        <v>0.1639134087404757</v>
+        <v>0.1663866698787281</v>
       </c>
       <c r="P4">
-        <v>0.1583787869095752</v>
+        <v>0.1611436226757482</v>
       </c>
       <c r="Q4">
-        <v>0.1533166892479751</v>
+        <v>0.1563794880199774</v>
       </c>
       <c r="R4">
-        <v>0.1486677916682085</v>
+        <v>0.1520343369353022</v>
       </c>
       <c r="S4">
-        <v>0.1443816377533735</v>
+        <v>0.1480571733711597</v>
       </c>
       <c r="T4">
-        <v>0.1404151337063326</v>
+        <v>0.1444044134366939</v>
       </c>
       <c r="U4">
-        <v>0.1367313295957551</v>
+        <v>0.1410386552796573</v>
       </c>
       <c r="V4">
-        <v>0.1332984266631954</v>
+        <v>0.1379276782205332</v>
       </c>
       <c r="W4">
-        <v>0.1300889642620771</v>
+        <v>0.1350436238646941</v>
       </c>
       <c r="X4">
-        <v>0.1270791504039225</v>
+        <v>0.1323623225415339</v>
       </c>
       <c r="Y4">
-        <v>0.1242483077818885</v>
+        <v>0.129862736476154</v>
       </c>
       <c r="Z4">
-        <v>0.1215784131716445</v>
+        <v>0.1275264972482464</v>
       </c>
       <c r="AA4">
-        <v>0.1190537127445414</v>
+        <v>0.1253375198158855</v>
       </c>
       <c r="AB4">
-        <v>0.1166603994123533</v>
+        <v>0.1232816790319028</v>
       </c>
       <c r="AC4">
-        <v>0.1143863411110366</v>
+        <v>0.1213465374177938</v>
       </c>
       <c r="AD4">
-        <v>0.1122208511120787</v>
+        <v>0.1195211151781422</v>
       </c>
       <c r="AE4">
-        <v>0.1101544931656009</v>
+        <v>0.1177956951819707</v>
       </c>
       <c r="AF4">
-        <v>0.108178915635938</v>
+        <v>0.1161616570150239</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -813,91 +813,91 @@
         <v>0.4783134654375992</v>
       </c>
       <c r="D5">
-        <v>0.2776449984817169</v>
+        <v>0.2776618057163993</v>
       </c>
       <c r="E5">
-        <v>0.1700880690621084</v>
+        <v>0.1701186611290509</v>
       </c>
       <c r="F5">
-        <v>0.1093769631758116</v>
+        <v>0.1094159320563</v>
       </c>
       <c r="G5">
-        <v>0.07347523880910076</v>
+        <v>0.07351845319613892</v>
       </c>
       <c r="H5">
-        <v>0.05133633706523601</v>
+        <v>0.05138119808005378</v>
       </c>
       <c r="I5">
-        <v>0.03715972495635043</v>
+        <v>0.03720475776887476</v>
       </c>
       <c r="J5">
-        <v>0.02776830316052789</v>
+        <v>0.02781275066383017</v>
       </c>
       <c r="K5">
-        <v>0.0213537602212457</v>
+        <v>0.02139729512814022</v>
       </c>
       <c r="L5">
-        <v>0.01685018100122527</v>
+        <v>0.01689272284659085</v>
       </c>
       <c r="M5">
-        <v>0.01360884506370764</v>
+        <v>0.01365044944690444</v>
       </c>
       <c r="N5">
-        <v>0.011223223591436</v>
+        <v>0.01126401696868176</v>
       </c>
       <c r="O5">
-        <v>0.009431644659275354</v>
+        <v>0.009471786743427493</v>
       </c>
       <c r="P5">
-        <v>0.008061486666486964</v>
+        <v>0.008101149221180586</v>
       </c>
       <c r="Q5">
-        <v>0.006996272413003459</v>
+        <v>0.007035627659254136</v>
       </c>
       <c r="R5">
-        <v>0.006155757430034789</v>
+        <v>0.006194972027555055</v>
       </c>
       <c r="S5">
-        <v>0.005483589085604556</v>
+        <v>0.005522821304284188</v>
       </c>
       <c r="T5">
-        <v>0.004939486179657634</v>
+        <v>0.00497888486024517</v>
       </c>
       <c r="U5">
-        <v>0.004494179961540809</v>
+        <v>0.004533884446694332</v>
       </c>
       <c r="V5">
-        <v>0.004126078189082542</v>
+        <v>0.004166218749834219</v>
       </c>
       <c r="W5">
-        <v>0.003819025786534301</v>
+        <v>0.003859724272174429</v>
       </c>
       <c r="X5">
-        <v>0.003560776415531402</v>
+        <v>0.003602146974535236</v>
       </c>
       <c r="Y5">
-        <v>0.003341932943447307</v>
+        <v>0.003384082733319299</v>
       </c>
       <c r="Z5">
-        <v>0.00315520221687185</v>
+        <v>0.003198232061742385</v>
       </c>
       <c r="AA5">
-        <v>0.002994863727948844</v>
+        <v>0.003038868706322286</v>
       </c>
       <c r="AB5">
-        <v>0.002856385921599051</v>
+        <v>0.002901455879889721</v>
       </c>
       <c r="AC5">
-        <v>0.00273614578101659</v>
+        <v>0.002782365775638064</v>
       </c>
       <c r="AD5">
-        <v>0.002631221570666717</v>
+        <v>0.002678672244980715</v>
       </c>
       <c r="AE5">
-        <v>0.00253923801636297</v>
+        <v>0.002587995920256362</v>
       </c>
       <c r="AF5">
-        <v>0.0024582494915363</v>
+        <v>0.002508387351681227</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -905,97 +905,97 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7939057911269857</v>
+        <v>0.7939057911269859</v>
       </c>
       <c r="C6">
-        <v>0.4617406340821548</v>
+        <v>0.4617406340821553</v>
       </c>
       <c r="D6">
-        <v>0.2831493729484011</v>
+        <v>0.2831926196902801</v>
       </c>
       <c r="E6">
-        <v>0.1821074014831646</v>
+        <v>0.1821900496846972</v>
       </c>
       <c r="F6">
-        <v>0.1222558135819233</v>
+        <v>0.1223657371369827</v>
       </c>
       <c r="G6">
-        <v>0.08530671712282777</v>
+        <v>0.08543335873283289</v>
       </c>
       <c r="H6">
-        <v>0.06163059382557226</v>
+        <v>0.06176656312848887</v>
       </c>
       <c r="I6">
-        <v>0.04594134554738603</v>
+        <v>0.04608194134111358</v>
       </c>
       <c r="J6">
-        <v>0.03522496752378238</v>
+        <v>0.03536739348719689</v>
       </c>
       <c r="K6">
-        <v>0.02770242248425</v>
+        <v>0.02784513639706268</v>
       </c>
       <c r="L6">
-        <v>0.02228988159662174</v>
+        <v>0.02243213589035888</v>
       </c>
       <c r="M6">
-        <v>0.01830766462730223</v>
+        <v>0.01844920245164859</v>
       </c>
       <c r="N6">
-        <v>0.01531808034767707</v>
+        <v>0.01545894073650688</v>
       </c>
       <c r="O6">
-        <v>0.01303232306420351</v>
+        <v>0.01317271817289098</v>
       </c>
       <c r="P6">
-        <v>0.01125551293890084</v>
+        <v>0.01139575155901559</v>
       </c>
       <c r="Q6">
-        <v>0.009853409688325508</v>
+        <v>0.009993850055283526</v>
       </c>
       <c r="R6">
-        <v>0.008731768141390612</v>
+        <v>0.008872789142140517</v>
       </c>
       <c r="S6">
-        <v>0.007823249237924573</v>
+        <v>0.007965233119868066</v>
       </c>
       <c r="T6">
-        <v>0.007078949835888254</v>
+        <v>0.007222272072886263</v>
       </c>
       <c r="U6">
-        <v>0.00646281617954324</v>
+        <v>0.006607839766206183</v>
       </c>
       <c r="V6">
-        <v>0.005947893417067087</v>
+        <v>0.006094965879297777</v>
       </c>
       <c r="W6">
-        <v>0.005513765771853208</v>
+        <v>0.005663217821020373</v>
       </c>
       <c r="X6">
-        <v>0.0051447821847311</v>
+        <v>0.005296927345284797</v>
       </c>
       <c r="Y6">
-        <v>0.004828808511406409</v>
+        <v>0.004983943305376032</v>
       </c>
       <c r="Z6">
-        <v>0.004556338056557676</v>
+        <v>0.004714742488378955</v>
       </c>
       <c r="AA6">
-        <v>0.004319849434885623</v>
+        <v>0.004481787620927894</v>
       </c>
       <c r="AB6">
-        <v>0.004113337420063579</v>
+        <v>0.004279058270750266</v>
       </c>
       <c r="AC6">
-        <v>0.003931966307258033</v>
+        <v>0.004101704209446811</v>
       </c>
       <c r="AD6">
-        <v>0.003771811069353355</v>
+        <v>0.003945786541306979</v>
       </c>
       <c r="AE6">
-        <v>0.003629662128832299</v>
+        <v>0.003808082435156535</v>
       </c>
       <c r="AF6">
-        <v>0.003502876711763372</v>
+        <v>0.003685936434618995</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1009,91 +1009,91 @@
         <v>0.8942357844094723</v>
       </c>
       <c r="D7">
-        <v>0.8295442859509939</v>
+        <v>0.8312161610886476</v>
       </c>
       <c r="E7">
-        <v>0.7626403259202206</v>
+        <v>0.7672159356868405</v>
       </c>
       <c r="F7">
-        <v>0.6955812468501005</v>
+        <v>0.7038715731369921</v>
       </c>
       <c r="G7">
-        <v>0.6299890765093649</v>
+        <v>0.6424307841846432</v>
       </c>
       <c r="H7">
-        <v>0.5670781119293666</v>
+        <v>0.5837949890023335</v>
       </c>
       <c r="I7">
-        <v>0.5077007221205336</v>
+        <v>0.5285702142740577</v>
       </c>
       <c r="J7">
-        <v>0.4524019114068734</v>
+        <v>0.4771198104127187</v>
       </c>
       <c r="K7">
-        <v>0.4014757566633411</v>
+        <v>0.4296146416828026</v>
       </c>
       <c r="L7">
-        <v>0.3550191255311282</v>
+        <v>0.386078207419667</v>
       </c>
       <c r="M7">
-        <v>0.3129799471135504</v>
+        <v>0.346425487873348</v>
       </c>
       <c r="N7">
-        <v>0.2751987113584781</v>
+        <v>0.3104952272861201</v>
       </c>
       <c r="O7">
-        <v>0.2414428577851732</v>
+        <v>0.2780759495131644</v>
       </c>
       <c r="P7">
-        <v>0.2114343503295447</v>
+        <v>0.2489263309552812</v>
       </c>
       <c r="Q7">
-        <v>0.1848711030458111</v>
+        <v>0.222790706121628</v>
       </c>
       <c r="R7">
-        <v>0.1614430959094844</v>
+        <v>0.1994105133380338</v>
       </c>
       <c r="S7">
-        <v>0.1408440637766925</v>
+        <v>0.1785324480327166</v>
       </c>
       <c r="T7">
-        <v>0.1227796036672855</v>
+        <v>0.1599140117298707</v>
       </c>
       <c r="U7">
-        <v>0.1069724619575474</v>
+        <v>0.1433270487905583</v>
       </c>
       <c r="V7">
-        <v>0.09316565877809478</v>
+        <v>0.1285597643505031</v>
       </c>
       <c r="W7">
-        <v>0.08112399821787362</v>
+        <v>0.1154176242108713</v>
       </c>
       <c r="X7">
-        <v>0.07063440968496264</v>
+        <v>0.1037234549735777</v>
       </c>
       <c r="Y7">
-        <v>0.06150547326017639</v>
+        <v>0.09331699215298898</v>
       </c>
       <c r="Z7">
-        <v>0.05356640233662721</v>
+        <v>0.08405406538446082</v>
       </c>
       <c r="AA7">
-        <v>0.04666569057565561</v>
+        <v>0.07580556231060377</v>
       </c>
       <c r="AB7">
-        <v>0.0406695764114198</v>
+        <v>0.0684562749365096</v>
       </c>
       <c r="AC7">
-        <v>0.03546043561258536</v>
+        <v>0.06190370273749171</v>
       </c>
       <c r="AD7">
-        <v>0.03093517915092196</v>
+        <v>0.05605686414089994</v>
       </c>
       <c r="AE7">
-        <v>0.02700370822306155</v>
+        <v>0.05083515087799195</v>
       </c>
       <c r="AF7">
-        <v>0.02358745923393835</v>
+        <v>0.04616724697284935</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1107,91 +1107,91 @@
         <v>0.4920265379592854</v>
       </c>
       <c r="D8">
-        <v>0.3883881209699849</v>
+        <v>0.3889807902431425</v>
       </c>
       <c r="E8">
-        <v>0.3100177651053976</v>
+        <v>0.3114253955445422</v>
       </c>
       <c r="F8">
-        <v>0.2499856007962715</v>
+        <v>0.2522388108581351</v>
       </c>
       <c r="G8">
-        <v>0.2034505280151244</v>
+        <v>0.2064862406951166</v>
       </c>
       <c r="H8">
-        <v>0.1669800194936189</v>
+        <v>0.1706947531974154</v>
       </c>
       <c r="I8">
-        <v>0.1381062777319374</v>
+        <v>0.1423845718417172</v>
       </c>
       <c r="J8">
-        <v>0.115031918479401</v>
+        <v>0.1197609133450541</v>
       </c>
       <c r="K8">
-        <v>0.09643183571156601</v>
+        <v>0.1015081833459865</v>
       </c>
       <c r="L8">
-        <v>0.08131790899198346</v>
+        <v>0.08665049388888353</v>
       </c>
       <c r="M8">
-        <v>0.06894537901332605</v>
+        <v>0.0744558120867814</v>
       </c>
       <c r="N8">
-        <v>0.05874723748113839</v>
+        <v>0.06436922696799249</v>
       </c>
       <c r="O8">
-        <v>0.05028769975771398</v>
+        <v>0.05596591369213503</v>
       </c>
       <c r="P8">
-        <v>0.04322883801385804</v>
+        <v>0.04891759374710106</v>
       </c>
       <c r="Q8">
-        <v>0.03730639735875222</v>
+        <v>0.04296835463496299</v>
       </c>
       <c r="R8">
-        <v>0.03231209090386884</v>
+        <v>0.0379170351199384</v>
       </c>
       <c r="S8">
-        <v>0.02808051418412691</v>
+        <v>0.03360426638082131</v>
       </c>
       <c r="T8">
-        <v>0.02447938605228317</v>
+        <v>0.02990284901599096</v>
       </c>
       <c r="U8">
-        <v>0.02140220778196719</v>
+        <v>0.02671054359142471</v>
       </c>
       <c r="V8">
-        <v>0.01876269598646591</v>
+        <v>0.02394462372699019</v>
       </c>
       <c r="W8">
-        <v>0.01649052785779116</v>
+        <v>0.02153772774047645</v>
       </c>
       <c r="X8">
-        <v>0.0145280652467923</v>
+        <v>0.01943467509735364</v>
       </c>
       <c r="Y8">
-        <v>0.01282781454658064</v>
+        <v>0.01759000546882523</v>
       </c>
       <c r="Z8">
-        <v>0.01135044380753801</v>
+        <v>0.01596606315827364</v>
       </c>
       <c r="AA8">
-        <v>0.01006322485476621</v>
+        <v>0.01453149614799432</v>
       </c>
       <c r="AB8">
-        <v>0.008938801764423967</v>
+        <v>0.01326007257277343</v>
       </c>
       <c r="AC8">
-        <v>0.007954211585290248</v>
+        <v>0.0121297418387655</v>
       </c>
       <c r="AD8">
-        <v>0.007090101241342192</v>
+        <v>0.01112188550288594</v>
       </c>
       <c r="AE8">
-        <v>0.006330097927018586</v>
+        <v>0.01022071624489058</v>
       </c>
       <c r="AF8">
-        <v>0.005660300287140109</v>
+        <v>0.009412793094038892</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1199,97 +1199,97 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4895249003151677</v>
+        <v>0.4895249003151676</v>
       </c>
       <c r="C9">
         <v>0.3533422012297991</v>
       </c>
       <c r="D9">
-        <v>0.2630511873622948</v>
+        <v>0.2631049257983741</v>
       </c>
       <c r="E9">
-        <v>0.2013600256927302</v>
+        <v>0.2014822642171056</v>
       </c>
       <c r="F9">
-        <v>0.1580491653932644</v>
+        <v>0.1582392623233906</v>
       </c>
       <c r="G9">
-        <v>0.1268863790111988</v>
+        <v>0.1271383860796367</v>
       </c>
       <c r="H9">
-        <v>0.1039603404256724</v>
+        <v>0.1042672211182073</v>
       </c>
       <c r="I9">
-        <v>0.08675083326663766</v>
+        <v>0.08710610620155726</v>
       </c>
       <c r="J9">
-        <v>0.07359424867566326</v>
+        <v>0.07399251554320546</v>
       </c>
       <c r="K9">
-        <v>0.06336773530440337</v>
+        <v>0.06380474340905769</v>
       </c>
       <c r="L9">
-        <v>0.05529773931112036</v>
+        <v>0.0557702673594637</v>
       </c>
       <c r="M9">
-        <v>0.04884117505171531</v>
+        <v>0.04934686778314112</v>
       </c>
       <c r="N9">
-        <v>0.04361004179035491</v>
+        <v>0.04414724533717965</v>
       </c>
       <c r="O9">
-        <v>0.03932261945942943</v>
+        <v>0.03989023633160318</v>
       </c>
       <c r="P9">
-        <v>0.03577126863039325</v>
+        <v>0.03636863689055116</v>
       </c>
       <c r="Q9">
-        <v>0.03280080777533841</v>
+        <v>0.03342760316323972</v>
       </c>
       <c r="R9">
-        <v>0.0302937524936268</v>
+        <v>0.03094991027864544</v>
       </c>
       <c r="S9">
-        <v>0.02816008296359711</v>
+        <v>0.02884573597251008</v>
       </c>
       <c r="T9">
-        <v>0.02633004768254747</v>
+        <v>0.02704547726694902</v>
       </c>
       <c r="U9">
-        <v>0.02474903383277642</v>
+        <v>0.02549463105747498</v>
       </c>
       <c r="V9">
-        <v>0.02337386420037064</v>
+        <v>0.02415009906047571</v>
       </c>
       <c r="W9">
-        <v>0.02217009192148596</v>
+        <v>0.02297748885974627</v>
       </c>
       <c r="X9">
-        <v>0.02111000191737713</v>
+        <v>0.02194912029584297</v>
       </c>
       <c r="Y9">
-        <v>0.02017111873163091</v>
+        <v>0.02104253721608423</v>
       </c>
       <c r="Z9">
-        <v>0.01933508128738458</v>
+        <v>0.0202393853402298</v>
       </c>
       <c r="AA9">
-        <v>0.01858678629730185</v>
+        <v>0.01952455815729596</v>
       </c>
       <c r="AB9">
-        <v>0.01791373033406178</v>
+        <v>0.01888554100093954</v>
       </c>
       <c r="AC9">
-        <v>0.01730550018921501</v>
+        <v>0.01831190303766206</v>
       </c>
       <c r="AD9">
-        <v>0.01675337491070809</v>
+        <v>0.01779490063907242</v>
       </c>
       <c r="AE9">
-        <v>0.01625001266256698</v>
+        <v>0.01732716534330066</v>
       </c>
       <c r="AF9">
-        <v>0.01578920252983921</v>
+        <v>0.01690245657564531</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.142341997113088</v>
       </c>
       <c r="C10">
-        <v>0.8084302649704139</v>
+        <v>0.8084302649704126</v>
       </c>
       <c r="D10">
-        <v>0.5939678141031767</v>
+        <v>0.5937597815605744</v>
       </c>
       <c r="E10">
-        <v>0.4513552191755253</v>
+        <v>0.4508857148756656</v>
       </c>
       <c r="F10">
-        <v>0.3535366868032845</v>
+        <v>0.3528086508735147</v>
       </c>
       <c r="G10">
-        <v>0.284566516998588</v>
+        <v>0.2835998965569795</v>
       </c>
       <c r="H10">
-        <v>0.2347318640561257</v>
+        <v>0.2335483305361008</v>
       </c>
       <c r="I10">
-        <v>0.1979358301376592</v>
+        <v>0.1965533844291456</v>
       </c>
       <c r="J10">
-        <v>0.1702447262847468</v>
+        <v>0.1686762886677287</v>
       </c>
       <c r="K10">
-        <v>0.1490559725180145</v>
+        <v>0.1473094883374355</v>
       </c>
       <c r="L10">
-        <v>0.1326075595744307</v>
+        <v>0.1306865975423691</v>
       </c>
       <c r="M10">
-        <v>0.1196810836394574</v>
+        <v>0.1175855178732316</v>
       </c>
       <c r="N10">
-        <v>0.1094175025882422</v>
+        <v>0.1071441295788468</v>
       </c>
       <c r="O10">
-        <v>0.1012002032118297</v>
+        <v>0.09874325262328303</v>
       </c>
       <c r="P10">
-        <v>0.09457921120578464</v>
+        <v>0.09193075147791017</v>
       </c>
       <c r="Q10">
-        <v>0.08922109993168117</v>
+        <v>0.08637135382792331</v>
       </c>
       <c r="R10">
-        <v>0.08487527828199751</v>
+        <v>0.08181286626684134</v>
       </c>
       <c r="S10">
-        <v>0.0813509158491226</v>
+        <v>0.07806304364213452</v>
       </c>
       <c r="T10">
-        <v>0.07850089870757876</v>
+        <v>0.07497350256741507</v>
       </c>
       <c r="U10">
-        <v>0.07621050884599032</v>
+        <v>0.07242836929698253</v>
       </c>
       <c r="V10">
-        <v>0.07438932636744849</v>
+        <v>0.07033615861536048</v>
       </c>
       <c r="W10">
-        <v>0.07296536232532225</v>
+        <v>0.0686238896107612</v>
       </c>
       <c r="X10">
-        <v>0.07188075647342033</v>
+        <v>0.0672327710483441</v>
       </c>
       <c r="Y10">
-        <v>0.07108858689920675</v>
+        <v>0.06611500211241177</v>
       </c>
       <c r="Z10">
-        <v>0.07055047913201767</v>
+        <v>0.06523137519854549</v>
       </c>
       <c r="AA10">
-        <v>0.07023479658079688</v>
+        <v>0.06454946192241209</v>
       </c>
       <c r="AB10">
-        <v>0.07011525816802441</v>
+        <v>0.06404222769430194</v>
       </c>
       <c r="AC10">
-        <v>0.07016987303344684</v>
+        <v>0.06368696434428578</v>
       </c>
       <c r="AD10">
-        <v>0.07038011278902497</v>
+        <v>0.06346446098809666</v>
       </c>
       <c r="AE10">
-        <v>0.07073026333104225</v>
+        <v>0.06335835492201755</v>
       </c>
       <c r="AF10">
-        <v>0.07120691351145661</v>
+        <v>0.06335461968698132</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1395,97 +1395,97 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4482735300492183</v>
+        <v>0.4482735300492181</v>
       </c>
       <c r="C11">
         <v>0.4042959484233923</v>
       </c>
       <c r="D11">
-        <v>0.3682617085008703</v>
+        <v>0.3682805167034998</v>
       </c>
       <c r="E11">
-        <v>0.3384435034382721</v>
+        <v>0.3384948606484578</v>
       </c>
       <c r="F11">
-        <v>0.3135469903349275</v>
+        <v>0.3136412376506592</v>
       </c>
       <c r="G11">
-        <v>0.2925895864214318</v>
+        <v>0.2927347683743188</v>
       </c>
       <c r="H11">
-        <v>0.2748163060281753</v>
+        <v>0.2750189078932544</v>
       </c>
       <c r="I11">
-        <v>0.2596404700707199</v>
+        <v>0.2599059148749898</v>
       </c>
       <c r="J11">
-        <v>0.2466013699651443</v>
+        <v>0.2469343556721298</v>
       </c>
       <c r="K11">
-        <v>0.2353336526495116</v>
+        <v>0.2357383818340883</v>
       </c>
       <c r="L11">
-        <v>0.2255449167895046</v>
+        <v>0.2260252532551016</v>
       </c>
       <c r="M11">
-        <v>0.2169991334144938</v>
+        <v>0.2175587087206351</v>
       </c>
       <c r="N11">
-        <v>0.2095042467491416</v>
+        <v>0.2101465321383102</v>
       </c>
       <c r="O11">
-        <v>0.2029028085469775</v>
+        <v>0.2036311628296613</v>
       </c>
       <c r="P11">
-        <v>0.1970648369002476</v>
+        <v>0.1978825375693886</v>
       </c>
       <c r="Q11">
-        <v>0.191882322448965</v>
+        <v>0.1927925850784442</v>
       </c>
       <c r="R11">
-        <v>0.1872649660726374</v>
+        <v>0.1882709555441168</v>
       </c>
       <c r="S11">
-        <v>0.1831368453445628</v>
+        <v>0.1842416814074223</v>
       </c>
       <c r="T11">
-        <v>0.1794337873576397</v>
+        <v>0.1806405463041164</v>
       </c>
       <c r="U11">
-        <v>0.1761012830949633</v>
+        <v>0.1774129968254745</v>
       </c>
       <c r="V11">
-        <v>0.1730928201539646</v>
+        <v>0.1745124735484015</v>
       </c>
       <c r="W11">
-        <v>0.1703685410140496</v>
+        <v>0.1718990682681327</v>
       </c>
       <c r="X11">
-        <v>0.1678941563935588</v>
+        <v>0.169538436794314</v>
       </c>
       <c r="Y11">
-        <v>0.1656400598242637</v>
+        <v>0.1674009133042303</v>
       </c>
       <c r="Z11">
-        <v>0.1635806019655456</v>
+        <v>0.1654607846768968</v>
       </c>
       <c r="AA11">
-        <v>0.1616934925112463</v>
+        <v>0.1636956925884742</v>
       </c>
       <c r="AB11">
-        <v>0.1599593046157593</v>
+        <v>0.1620861382418399</v>
       </c>
       <c r="AC11">
-        <v>0.1583610621638641</v>
+        <v>0.160615070014849</v>
       </c>
       <c r="AD11">
-        <v>0.1568838943541517</v>
+        <v>0.1592675384673477</v>
       </c>
       <c r="AE11">
-        <v>0.1555147452686165</v>
+        <v>0.1580304063573285</v>
       </c>
       <c r="AF11">
-        <v>0.1542421285898358</v>
+        <v>0.1568921038111852</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1499,91 +1499,91 @@
         <v>0.4047685500301599</v>
       </c>
       <c r="D12">
-        <v>0.3384969127135929</v>
+        <v>0.3386231315130422</v>
       </c>
       <c r="E12">
-        <v>0.287303216777921</v>
+        <v>0.2876216160417845</v>
       </c>
       <c r="F12">
-        <v>0.2471338611767044</v>
+        <v>0.2476766345798056</v>
       </c>
       <c r="G12">
-        <v>0.2151598584738174</v>
+        <v>0.21594041184323</v>
       </c>
       <c r="H12">
-        <v>0.1893718771374083</v>
+        <v>0.1903933664104565</v>
       </c>
       <c r="I12">
-        <v>0.1683193556565991</v>
+        <v>0.1695795672415484</v>
       </c>
       <c r="J12">
-        <v>0.1509392074983825</v>
+        <v>0.152433338102452</v>
       </c>
       <c r="K12">
-        <v>0.1364413399834191</v>
+        <v>0.1381635599848313</v>
       </c>
       <c r="L12">
-        <v>0.1242308671525377</v>
+        <v>0.1261751761631367</v>
       </c>
       <c r="M12">
-        <v>0.1138544313199872</v>
+        <v>0.1160151018418601</v>
       </c>
       <c r="N12">
-        <v>0.1049626207838141</v>
+        <v>0.1073344036105872</v>
       </c>
       <c r="O12">
-        <v>0.09728329718492473</v>
+        <v>0.09986149107545356</v>
       </c>
       <c r="P12">
-        <v>0.09060242256409344</v>
+        <v>0.09338286889847545</v>
       </c>
       <c r="Q12">
-        <v>0.08475011106933411</v>
+        <v>0.08772914939308253</v>
       </c>
       <c r="R12">
-        <v>0.07959036632785511</v>
+        <v>0.08276477187741439</v>
       </c>
       <c r="S12">
-        <v>0.07501344975410992</v>
+        <v>0.07838036517090721</v>
       </c>
       <c r="T12">
-        <v>0.07093014799077184</v>
+        <v>0.0744870160907756</v>
       </c>
       <c r="U12">
-        <v>0.06726742578892342</v>
+        <v>0.07101192705066468</v>
       </c>
       <c r="V12">
-        <v>0.06396509974087794</v>
+        <v>0.06789509626468598</v>
       </c>
       <c r="W12">
-        <v>0.06097327138873587</v>
+        <v>0.06508675795596976</v>
       </c>
       <c r="X12">
-        <v>0.05825033031302531</v>
+        <v>0.06254539252839406</v>
       </c>
       <c r="Y12">
-        <v>0.05576138871879845</v>
+        <v>0.06023616786359699</v>
       </c>
       <c r="Z12">
-        <v>0.05347704535250619</v>
+        <v>0.05812970939669037</v>
       </c>
       <c r="AA12">
-        <v>0.05137240272991541</v>
+        <v>0.05620112287576737</v>
       </c>
       <c r="AB12">
-        <v>0.04942628064889303</v>
+        <v>0.05442921276521631</v>
       </c>
       <c r="AC12">
-        <v>0.04762058287558042</v>
+        <v>0.05279585320233552</v>
       </c>
       <c r="AD12">
-        <v>0.04593978416922383</v>
+        <v>0.05128547871206768</v>
       </c>
       <c r="AE12">
-        <v>0.04437051245975731</v>
+        <v>0.04988466954229952</v>
       </c>
       <c r="AF12">
-        <v>0.04290120672741443</v>
+        <v>0.04858181222032847</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1594,94 +1594,94 @@
         <v>0.5528235542392858</v>
       </c>
       <c r="C13">
-        <v>0.4784334037231904</v>
+        <v>0.4784334037231907</v>
       </c>
       <c r="D13">
-        <v>0.4134263611463031</v>
+        <v>0.4142251235005237</v>
       </c>
       <c r="E13">
-        <v>0.3568163883549699</v>
+        <v>0.3588684646905578</v>
       </c>
       <c r="F13">
-        <v>0.3076636825785811</v>
+        <v>0.3111782081632786</v>
       </c>
       <c r="G13">
-        <v>0.2650911940381037</v>
+        <v>0.2701081405469676</v>
       </c>
       <c r="H13">
-        <v>0.228293725490003</v>
+        <v>0.2347416144796135</v>
       </c>
       <c r="I13">
-        <v>0.1965416020801097</v>
+        <v>0.2042803017675784</v>
       </c>
       <c r="J13">
-        <v>0.1691805066055736</v>
+        <v>0.1780322580637929</v>
       </c>
       <c r="K13">
-        <v>0.1456287258133087</v>
+        <v>0.1554000471243978</v>
       </c>
       <c r="L13">
-        <v>0.125372756100095</v>
+        <v>0.1358693994315592</v>
       </c>
       <c r="M13">
-        <v>0.1079619724790375</v>
+        <v>0.1189986834137997</v>
       </c>
       <c r="N13">
-        <v>0.09300286904914654</v>
+        <v>0.1044093298606774</v>
       </c>
       <c r="O13">
-        <v>0.08015322639762233</v>
+        <v>0.09177725671347743</v>
       </c>
       <c r="P13">
-        <v>0.06911644461852923</v>
+        <v>0.0808252804746752</v>
       </c>
       <c r="Q13">
-        <v>0.05963619334284075</v>
+        <v>0.07131646288603054</v>
       </c>
       <c r="R13">
-        <v>0.05149146635621257</v>
+        <v>0.06304832033814844</v>
       </c>
       <c r="S13">
-        <v>0.04449208286410428</v>
+        <v>0.05584781352233344</v>
       </c>
       <c r="T13">
-        <v>0.03847464594274731</v>
+        <v>0.04956703233745648</v>
       </c>
       <c r="U13">
-        <v>0.03329894769773909</v>
+        <v>0.04407949330623268</v>
       </c>
       <c r="V13">
-        <v>0.02884479737201007</v>
+        <v>0.0392769718261964</v>
       </c>
       <c r="W13">
-        <v>0.0250092409492278</v>
+        <v>0.03506679816488787</v>
       </c>
       <c r="X13">
-        <v>0.02170413704236999</v>
+        <v>0.03136955332351306</v>
       </c>
       <c r="Y13">
-        <v>0.0188540528033695</v>
+        <v>0.02811710816605486</v>
       </c>
       <c r="Z13">
-        <v>0.0163944443234227</v>
+        <v>0.02525095618752959</v>
       </c>
       <c r="AA13">
-        <v>0.0142700878492403</v>
+        <v>0.02272079677293649</v>
       </c>
       <c r="AB13">
-        <v>0.0124337306430932</v>
+        <v>0.02048333167675456</v>
       </c>
       <c r="AC13">
-        <v>0.01084493313209019</v>
+        <v>0.01850124269809941</v>
       </c>
       <c r="AD13">
-        <v>0.009469076899084331</v>
+        <v>0.01674232314788137</v>
       </c>
       <c r="AE13">
-        <v>0.008276515915975552</v>
+        <v>0.01517873973595731</v>
       </c>
       <c r="AF13">
-        <v>0.007241851117889368</v>
+        <v>0.01378640499660217</v>
       </c>
     </row>
   </sheetData>
